--- a/src/Shell/Shell Performance.xlsx
+++ b/src/Shell/Shell Performance.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\javie\Documents\GitHub\xamarin-forms-perf-playground\src\Shell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9979E9E2-5B17-49C2-ACF2-141ECBB634E8}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC8A1FA5-F6F4-4FE5-9B9A-E7B914CFCC9B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -433,7 +433,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
                 <c:pt idx="0">
-                  <c:v>136</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>132</c:v>
@@ -1467,7 +1467,7 @@
   <dimension ref="B1:D6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1507,7 +1507,7 @@
         <v>597</v>
       </c>
       <c r="D4" s="3">
-        <v>136</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
